--- a/statesman-journal-pg-pharmacies.xlsx
+++ b/statesman-journal-pg-pharmacies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\GitHub\prince-george-s-pharmacy-deserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8622A0E-8FD4-4F03-9893-2F6992089F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80526AB3-E2C7-4734-AE68-6861585AB283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7725" yWindow="1785" windowWidth="15375" windowHeight="7875" xr2:uid="{EF8D5A02-DF61-45AA-B140-597C5756A469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF8D5A02-DF61-45AA-B140-597C5756A469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
   <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,314 +912,314 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3">
-        <v>4189560</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>2609890</v>
+        <v>4189560</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3">
-        <v>2605000</v>
+        <v>35600</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3">
-        <v>2515900</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3">
-        <v>2487900</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3">
-        <v>2344780</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B8" s="3">
-        <v>2265100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3">
-        <v>2036400</v>
+        <v>91520</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3">
-        <v>1926335</v>
+        <v>69700</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
-        <v>1726900</v>
+        <v>1089050</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3">
-        <v>1708180</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3">
-        <v>1535100</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3">
-        <v>1516330</v>
+        <v>254600</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="B15" s="3">
-        <v>1423330</v>
+        <v>120100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="B16" s="3">
-        <v>1417470</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>1394180</v>
+        <v>2344780</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B18" s="3">
-        <v>1377960</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B19" s="3">
-        <v>1275940</v>
+        <v>358950</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3">
-        <v>1266040</v>
+        <v>90100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3">
-        <v>1180600</v>
+        <v>742400</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>1176300</v>
+        <v>1394180</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
-        <v>1152650</v>
+        <v>978770</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
-        <v>1089050</v>
+        <v>937230</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>1068430</v>
+        <v>704190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3">
-        <v>1062130</v>
+        <v>598610</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3">
-        <v>1011500</v>
+        <v>711670</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3">
-        <v>978770</v>
+        <v>413490</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3">
-        <v>954800</v>
+        <v>649800</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>937700</v>
+        <v>1417470</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3">
-        <v>937230</v>
+        <v>557910</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>925220</v>
+        <v>910570</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B33" s="3">
-        <v>910570</v>
+        <v>280300</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3">
-        <v>894480</v>
+        <v>615890</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3">
-        <v>880900</v>
+        <v>1377960</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3">
-        <v>873400</v>
+        <v>582990</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
-        <v>840380</v>
+        <v>1176300</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3">
-        <v>824430</v>
+        <v>1275940</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>820800</v>
+        <v>840380</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3">
-        <v>819130</v>
+        <v>263920</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,266 +1232,266 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B42" s="3">
-        <v>777850</v>
+        <v>2515900</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B43" s="3">
-        <v>753800</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="B44" s="3">
-        <v>742400</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B45" s="3">
-        <v>711670</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3">
-        <v>704190</v>
+        <v>84560</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B47" s="3">
-        <v>694100</v>
+        <v>328830</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B48" s="3">
-        <v>650000</v>
+        <v>2487900</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B49" s="3">
-        <v>649800</v>
+        <v>954800</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3">
-        <v>643800</v>
+        <v>545700</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B51" s="3">
-        <v>634960</v>
+        <v>2605000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="B52" s="3">
-        <v>622330</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="B53" s="3">
-        <v>621600</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B54" s="3">
-        <v>616830</v>
+        <v>433030</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3">
-        <v>615890</v>
+        <v>894480</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3">
-        <v>614210</v>
+        <v>596420</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B57" s="3">
-        <v>607800</v>
+        <v>937700</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3">
-        <v>602600</v>
+        <v>880900</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B59" s="3">
-        <v>599640</v>
+        <v>492600</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B60" s="3">
-        <v>598610</v>
+        <v>1011500</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B61" s="3">
-        <v>596420</v>
+        <v>925220</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3">
-        <v>582990</v>
+        <v>418300</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3">
-        <v>572630</v>
+        <v>2265100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B64" s="3">
-        <v>557910</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3">
-        <v>549500</v>
+        <v>824430</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B66" s="3">
-        <v>546370</v>
+        <v>614210</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B67" s="3">
-        <v>545700</v>
+        <v>266700</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B68" s="3">
-        <v>541030</v>
+        <v>498100</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B69" s="3">
-        <v>536160</v>
+        <v>344900</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B70" s="3">
-        <v>535200</v>
+        <v>390600</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B71" s="3">
-        <v>520810</v>
+        <v>753800</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B72" s="3">
-        <v>511300</v>
+        <v>411400</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B73" s="3">
-        <v>506900</v>
+        <v>873400</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B74" s="3">
-        <v>506230</v>
+        <v>643800</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,749 +1504,752 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B76" s="3">
-        <v>502100</v>
+        <v>375600</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B77" s="3">
-        <v>498100</v>
+        <v>2609890</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B78" s="3">
-        <v>492600</v>
+        <v>448700</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3">
-        <v>491320</v>
+        <v>474600</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B80" s="3">
-        <v>476370</v>
+        <v>820800</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B81" s="3">
-        <v>474600</v>
+        <v>395000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B82" s="3">
-        <v>472480</v>
+        <v>1180600</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3">
-        <v>455500</v>
+        <v>599640</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B84" s="3">
-        <v>452970</v>
+        <v>1726900</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="3">
-        <v>448700</v>
+        <v>446800</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3">
-        <v>446800</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B87" s="3">
-        <v>434100</v>
+        <v>602600</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B88" s="3">
-        <v>433030</v>
+        <v>455500</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B89" s="3">
-        <v>418300</v>
+        <v>1708180</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B90" s="3">
-        <v>413490</v>
+        <v>536160</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3">
-        <v>411400</v>
+        <v>1152650</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B92" s="3">
-        <v>411400</v>
+        <v>1068430</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B93" s="3">
-        <v>395000</v>
+        <v>2036400</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B94" s="3">
-        <v>393070</v>
+        <v>549500</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B95" s="3">
-        <v>392470</v>
+        <v>1535100</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B96" s="3">
-        <v>391490</v>
+        <v>506230</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="B97" s="3">
-        <v>390600</v>
+        <v>23620</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B98" s="3">
-        <v>375900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3">
-        <v>375600</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B100" s="3">
-        <v>361860</v>
+        <v>17030</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3">
-        <v>358950</v>
+        <v>318240</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B102" s="3">
-        <v>358030</v>
+        <v>230730</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B103" s="3">
-        <v>344900</v>
+        <v>1926335</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B104" s="3">
-        <v>335850</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>330000</v>
+        <v>282760</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B106" s="3">
-        <v>328830</v>
+        <v>777850</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>318240</v>
+        <v>307360</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B108" s="3">
-        <v>316980</v>
+        <v>546370</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B109" s="3">
-        <v>310572</v>
+        <v>393070</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B110" s="3">
-        <v>307360</v>
+        <v>452970</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B111" s="3">
-        <v>282760</v>
+        <v>621600</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B112" s="3">
-        <v>280300</v>
+        <v>392470</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B113" s="3">
-        <v>277890</v>
+        <v>375900</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B114" s="3">
-        <v>272820</v>
+        <v>472480</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B115" s="3">
-        <v>270260</v>
+        <v>228440</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B116" s="3">
-        <v>266700</v>
+        <v>316980</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B117" s="3">
-        <v>266100</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B118" s="3">
-        <v>263920</v>
+        <v>65200</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B119" s="3">
-        <v>257400</v>
+        <v>1423330</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>254600</v>
+        <v>243800</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B121" s="3">
-        <v>250230</v>
+        <v>535200</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B122" s="3">
-        <v>243800</v>
+        <v>541030</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B123" s="3">
-        <v>239600</v>
+        <v>270260</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="B124" s="3">
-        <v>232700</v>
+        <v>622330</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B125" s="3">
-        <v>230730</v>
+        <v>434100</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B126" s="3">
-        <v>228440</v>
+        <v>1062130</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B127" s="3">
-        <v>212700</v>
+        <v>572630</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B128" s="3">
-        <v>212500</v>
+        <v>411400</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B129" s="3">
-        <v>195400</v>
+        <v>819130</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B130" s="3">
-        <v>168360</v>
+        <v>1516330</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3">
-        <v>162400</v>
+        <v>137730</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B132" s="3">
-        <v>137730</v>
+        <v>250230</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B133" s="3">
-        <v>136000</v>
+        <v>335850</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B134" s="3">
-        <v>120100</v>
+        <v>257400</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B135" s="3">
-        <v>110000</v>
+        <v>694100</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B136" s="3">
-        <v>98040</v>
+        <v>266100</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B137" s="3">
-        <v>91520</v>
+        <v>506900</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B138" s="3">
-        <v>90100</v>
+        <v>239600</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B139" s="3">
-        <v>89300</v>
+        <v>232700</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B140" s="3">
-        <v>84560</v>
+        <v>272820</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B141" s="3">
-        <v>77800</v>
+        <v>212500</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B142" s="3">
-        <v>76800</v>
+        <v>195400</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B143" s="3">
-        <v>71700</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B144" s="3">
-        <v>69700</v>
+        <v>310572</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B145" s="3">
-        <v>68000</v>
+        <v>66400</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B146" s="3">
-        <v>66400</v>
+        <v>98040</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B147" s="3">
-        <v>65200</v>
+        <v>277890</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B148" s="3">
-        <v>65000</v>
+        <v>476370</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B149" s="3">
-        <v>56600</v>
+        <v>634960</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="B150" s="3">
-        <v>47900</v>
+        <v>502100</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="B151" s="3">
-        <v>43800</v>
+        <v>391490</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B152" s="3">
-        <v>40500</v>
+        <v>361860</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="B153" s="3">
-        <v>35600</v>
+        <v>358030</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B154" s="3">
-        <v>31900</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B155" s="3">
-        <v>27000</v>
+        <v>56600</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B156" s="3">
-        <v>23620</v>
+        <v>162400</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B157" s="3">
-        <v>22520</v>
+        <v>31900</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B158" s="3">
-        <v>21900</v>
+        <v>616830</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B159" s="3">
-        <v>17800</v>
+        <v>22520</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B160" s="3">
-        <v>17030</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B161" s="3">
-        <v>13300</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B162" s="3">
-        <v>10300</v>
+        <v>212700</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="B163" s="3">
-        <v>8400</v>
+        <v>1266040</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="B164" s="3">
-        <v>8000</v>
+        <v>520810</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="B165" s="3">
-        <v>6400</v>
+        <v>607800</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B166" s="3">
-        <v>4200</v>
+        <v>511300</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B167" s="3">
-        <v>3100</v>
+        <v>168360</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B168" s="3">
-        <v>1300</v>
+        <v>491320</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B168">
+    <sortCondition ref="A2:A168"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
